--- a/archive/iceKnives32.xlsx
+++ b/archive/iceKnives32.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="1023">
   <si>
     <t>{_f}</t>
   </si>
@@ -788,6 +788,9 @@
   </si>
   <si>
     <t>Satellite</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>Matrix</t>
@@ -4257,153 +4260,621 @@
       <c r="A2" s="3" t="s">
         <v>251</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -4428,7 +4899,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4514,88 +4985,88 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3">
@@ -4603,43 +5074,43 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>101</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>82</v>
@@ -4648,40 +5119,40 @@
         <v>177</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>123</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AA3" s="3" t="s">
         <v>215</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4">
@@ -4689,85 +5160,85 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>64</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>133</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>117</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5">
@@ -4775,34 +5246,34 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>187</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>197</v>
@@ -4811,49 +5282,49 @@
         <v>19</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>37</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6">
@@ -4861,85 +5332,85 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>114</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AA6" s="3" t="s">
         <v>119</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7">
@@ -4947,37 +5418,37 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>176</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>95</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>86</v>
@@ -4986,46 +5457,46 @@
         <v>204</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>208</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="X7" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8">
@@ -5033,85 +5504,85 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>79</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>152</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>63</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9">
@@ -5119,85 +5590,85 @@
         <v>58</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>85</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10">
@@ -5205,85 +5676,85 @@
         <v>66</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>164</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11">
@@ -5291,85 +5762,85 @@
         <v>74</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>163</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12">
@@ -5377,85 +5848,85 @@
         <v>81</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>205</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>47</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>212</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="13">
@@ -5463,85 +5934,85 @@
         <v>89</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>125</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="S13" s="3" t="s">
         <v>67</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14">
@@ -5549,25 +6020,25 @@
         <v>97</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>142</v>
@@ -5576,16 +6047,16 @@
         <v>200</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>122</v>
@@ -5594,37 +6065,37 @@
         <v>207</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AB14" s="4" t="s">
         <v>222</v>
@@ -5635,85 +6106,85 @@
         <v>105</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>41</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>141</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>146</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>118</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>51</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>130</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="16">
@@ -5721,82 +6192,82 @@
         <v>113</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>56</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AB16" s="4" t="s">
         <v>229</v>
@@ -5807,28 +6278,28 @@
         <v>121</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>110</v>
@@ -5837,52 +6308,52 @@
         <v>165</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>203</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="Y17" s="3" t="s">
         <v>181</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AB17" s="4" t="s">
         <v>231</v>
@@ -5893,16 +6364,16 @@
         <v>128</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>157</v>
@@ -5911,67 +6382,67 @@
         <v>94</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>169</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AB18" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19">
@@ -5979,31 +6450,31 @@
         <v>136</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>129</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>111</v>
@@ -6012,52 +6483,52 @@
         <v>75</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>103</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="20">
@@ -6065,28 +6536,28 @@
         <v>144</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>211</v>
@@ -6095,55 +6566,55 @@
         <v>60</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="X20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AB20" s="4" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="21">
@@ -6151,79 +6622,79 @@
         <v>151</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>185</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>217</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AA21" s="3" t="s">
         <v>9</v>
@@ -6237,40 +6708,40 @@
         <v>159</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>188</v>
@@ -6279,43 +6750,43 @@
         <v>40</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>193</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AB22" s="4" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="23">
@@ -6323,85 +6794,85 @@
         <v>167</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>195</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AA23" s="3" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="AB23" s="4" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="24">
@@ -6409,85 +6880,85 @@
         <v>175</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>134</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="Y24" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="Z24" s="3" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="AA24" s="3" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AB24" s="4" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="25">
@@ -6495,85 +6966,85 @@
         <v>183</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="Q25" s="3" t="s">
         <v>127</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="T25" s="3" t="s">
         <v>78</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="Z25" s="3" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AA25" s="3" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AB25" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26">
@@ -6581,85 +7052,85 @@
         <v>191</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>172</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>218</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="AA26" s="3" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="AB26" s="4" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="27">
@@ -6667,85 +7138,85 @@
         <v>199</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="V27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="Y27" s="3" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="Z27" s="3" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AA27" s="3" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="AB27" s="4" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="28">
@@ -6753,85 +7224,85 @@
         <v>206</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>160</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="Y28" s="3" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="AA28" s="3" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="AB28" s="4" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="29">
@@ -6839,85 +7310,85 @@
         <v>213</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="T29" s="5" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="U29" s="5" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="V29" s="5" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="W29" s="5" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="X29" s="5" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="Y29" s="5" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="Z29" s="5" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AA29" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="AB29" s="4" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="30">
@@ -6925,85 +7396,85 @@
         <v>7</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="S30" s="5" t="s">
         <v>229</v>
       </c>
       <c r="T30" s="5" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="U30" s="5" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="V30" s="5" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="W30" s="5" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="X30" s="5" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="Y30" s="5" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="Z30" s="5" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="AA30" s="5" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="AB30" s="4" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="31">
@@ -7011,85 +7482,85 @@
         <v>228</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="J31" s="5" t="s">
         <v>229</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="T31" s="5" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="U31" s="5" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="V31" s="5" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="W31" s="5" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="X31" s="5" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="Y31" s="5" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="Z31" s="5" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="AA31" s="5" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="AB31" s="4" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="32">
@@ -7103,79 +7574,79 @@
         <v>239</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>240</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="J32" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M32" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="K32" s="5" t="s">
-        <v>1011</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>1012</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>1009</v>
-      </c>
       <c r="N32" s="5" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="O32" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="Q32" s="5" t="s">
         <v>1014</v>
-      </c>
-      <c r="P32" s="5" t="s">
-        <v>1015</v>
-      </c>
-      <c r="Q32" s="5" t="s">
-        <v>1013</v>
       </c>
       <c r="R32" s="5" t="s">
         <v>239</v>
       </c>
       <c r="S32" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="U32" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="V32" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="W32" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="X32" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="Y32" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Z32" s="5" t="s">
         <v>1014</v>
-      </c>
-      <c r="T32" s="5" t="s">
-        <v>1016</v>
-      </c>
-      <c r="U32" s="5" t="s">
-        <v>1017</v>
-      </c>
-      <c r="V32" s="5" t="s">
-        <v>1018</v>
-      </c>
-      <c r="W32" s="5" t="s">
-        <v>1017</v>
-      </c>
-      <c r="X32" s="5" t="s">
-        <v>1019</v>
-      </c>
-      <c r="Y32" s="5" t="s">
-        <v>1020</v>
-      </c>
-      <c r="Z32" s="5" t="s">
-        <v>1013</v>
       </c>
       <c r="AA32" s="5" t="s">
         <v>237</v>
       </c>
       <c r="AB32" s="4" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
   </sheetData>
